--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaynbaig/Desktop/OneDrive/Documents/UCL/year 3/project/DISSERTATION/zaynbaig21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCC0BDD-0A08-B742-B4AA-CD936B3FCD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8983CA26-AB51-D74D-B61E-2E9677A475C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16120" xr2:uid="{5B8C3331-9102-2E44-B815-EA3F87B848EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="133">
   <si>
     <t>en</t>
   </si>
@@ -358,6 +358,119 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>weflyasone, AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>RT @Adelaide_FC: Brodie Smith has been substituted. Ben Davis will play the remainder of the match.
+#weflyasone #AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>AFC News &amp; Views</t>
+  </si>
+  <si>
+    <t>#weflyasone</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>RT @Adelaide_FC: 10-point margin. One quarter left. Don't go anywhere!
+#weflyasone #AFLCrowsPower https://t.co/VyTKWuKt6f</t>
+  </si>
+  <si>
+    <t>RT @Adelaide_FC: The redemption shot from Dmac! (and what a handball from Lairdy)
+#weflyasone #AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>RT @Adelaide_FC: Keays with a big goal for us in the third.
+#weflyasone #AFLCrowsPower https://t.co/huaWhFOISr</t>
+  </si>
+  <si>
+    <t>AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>TweetDeck</t>
+  </si>
+  <si>
+    <t>https://about.twitter.com/products/tweetdeck</t>
+  </si>
+  <si>
+    <t>Sam Taylor last night, Aliir Aliir tonight.
+The intercepting defenders have put on a show in round 21!
+#AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>This is Us.</t>
+  </si>
+  <si>
+    <t>#AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>YokayiFooty, AFLCrowsPower</t>
+  </si>
+  <si>
+    <t>WSC Sports</t>
+  </si>
+  <si>
+    <t>http://wsc-sports.com</t>
+  </si>
+  <si>
+    <t>Never a dull Showdown!
+Sam Powell-Pepper with a beauty. 
+#YokayiFooty | #AFLCrowsPower https://t.co/WJicK78kFU</t>
+  </si>
+  <si>
+    <t>A standing ovation for Will
+Hamill as he gets stretchered off. 
+#AFLCrowsPower https://t.co/aLCE14fdcs</t>
+  </si>
+  <si>
+    <t>AFLSaintsSwans</t>
+  </si>
+  <si>
+    <t>The Saints have been superb tonight.
+#AFLSaintsSwans https://t.co/YKASEfmTAT</t>
+  </si>
+  <si>
+    <t>#AFLSaintsSwans</t>
+  </si>
+  <si>
+    <t>Will Hayward cuts into the lead with a nice finish around the corner. 
+#AFLSaintsSwans https://t.co/ozaJi7Vss1</t>
+  </si>
+  <si>
+    <t>FT: @brisbanelions 22.10 (142) defeat @CollingwoodFC 8.9 (57).
+The Lions keep their top four hopes alive with a pe‚Ä¶ https://t.co/TQMpqyiAq9</t>
+  </si>
+  <si>
+    <t>#AFLLionsPies</t>
+  </si>
+  <si>
+    <t>FT: @sydneyswans 13.13 (91) defeat @NMFCOfficial 12.5 (77).
+The Swans survive a scare from the Roos üî¥‚ö™Ô∏è‚Ä¶ https://t.co/jEO9MA9j6b</t>
+  </si>
+  <si>
+    <t>#AFLNorthSwans</t>
+  </si>
+  <si>
+    <t>AFLNorthSwans</t>
+  </si>
+  <si>
+    <t>Three for Will Hayward üí™
+#AFLNorthSwans https://t.co/xWZ9hCr03E</t>
+  </si>
+  <si>
+    <t>North are within a kick thanks to Jed Anderson!
+#AFLNorthSwans https://t.co/5yEFZDHkBA</t>
+  </si>
+  <si>
+    <t>üò§
+#AFLNorthSwans https://t.co/rhZdtGl2Qw</t>
   </si>
 </sst>
 </file>
@@ -715,13 +828,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3236B81-D07D-F94C-92D4-69DD6EF6E53F}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="81.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1845,6 +1961,760 @@
         <v>-79.8733</v>
       </c>
     </row>
+    <row r="22" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>24048</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44415.488888888889</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22">
+        <v>-31.433299999999999</v>
+      </c>
+      <c r="R22">
+        <v>152.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24049</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44415.48541666667</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23">
+        <v>-37.8294</v>
+      </c>
+      <c r="R23">
+        <v>140.78280000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24050</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44415.472222222219</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P24" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24">
+        <v>-28.816700000000001</v>
+      </c>
+      <c r="R24">
+        <v>153.3167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24051</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44415.469444444447</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25">
+        <v>-28.866700000000002</v>
+      </c>
+      <c r="R25">
+        <v>153.05000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24052</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44415.505555555559</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26">
+        <v>754321</v>
+      </c>
+      <c r="L26" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26">
+        <v>-37.981000000000002</v>
+      </c>
+      <c r="R26">
+        <v>145.215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24053</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44415.505555555559</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27">
+        <v>754321</v>
+      </c>
+      <c r="L27" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" t="s">
+        <v>105</v>
+      </c>
+      <c r="N27" t="s">
+        <v>115</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q27">
+        <v>-30.5</v>
+      </c>
+      <c r="R27">
+        <v>151.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24054</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44415.493750000001</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28">
+        <v>754321</v>
+      </c>
+      <c r="L28" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N28" t="s">
+        <v>115</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28">
+        <v>-37.8142</v>
+      </c>
+      <c r="R28">
+        <v>144.9631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>24055</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44415.507638888892</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29">
+        <v>754321</v>
+      </c>
+      <c r="L29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q29">
+        <v>-41.063600000000001</v>
+      </c>
+      <c r="R29">
+        <v>145.87530000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>24056</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.42E+18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44415.503472222219</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30">
+        <v>754321</v>
+      </c>
+      <c r="L30" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1.1228009259259259E-2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30">
+        <v>-34.479199999999999</v>
+      </c>
+      <c r="R30">
+        <v>150.41810000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>24057</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.43E+18</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44422.506249999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31">
+        <v>755777</v>
+      </c>
+      <c r="L31" t="s">
+        <v>114</v>
+      </c>
+      <c r="M31" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1.0875000000000001E-2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31">
+        <v>-32.612499999999997</v>
+      </c>
+      <c r="R31">
+        <v>149.5872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>24058</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.43E+18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44422.510416666664</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32">
+        <v>755777</v>
+      </c>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" t="s">
+        <v>128</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1.0875000000000001E-2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q32">
+        <v>-16.920000000000002</v>
+      </c>
+      <c r="R32">
+        <v>145.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>24059</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.43E+18</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44422.502083333333</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33">
+        <v>755777</v>
+      </c>
+      <c r="L33" t="s">
+        <v>114</v>
+      </c>
+      <c r="M33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1.0875000000000001E-2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q33">
+        <v>-33.28</v>
+      </c>
+      <c r="R33">
+        <v>115.726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>24060</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.43E+18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44422.497916666667</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34">
+        <v>755777</v>
+      </c>
+      <c r="L34" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1.0875000000000001E-2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q34">
+        <v>-33.7483</v>
+      </c>
+      <c r="R34">
+        <v>150.6678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>24061</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.43E+18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44422.495138888888</v>
+      </c>
+      <c r="D35" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35">
+        <v>755777</v>
+      </c>
+      <c r="L35" t="s">
+        <v>114</v>
+      </c>
+      <c r="M35" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1.0875000000000001E-2</v>
+      </c>
+      <c r="P35" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="R35">
+        <v>151.19999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
